--- a/data/pca/factorExposure/factorExposure_2017-05-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-05-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02403039014326842</v>
+        <v>0.01011712007800062</v>
       </c>
       <c r="C2">
-        <v>-0.005296472038950445</v>
+        <v>-0.04277073307267526</v>
       </c>
       <c r="D2">
-        <v>0.03465183505514532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02947012743673649</v>
+      </c>
+      <c r="E2">
+        <v>-0.03548114944584533</v>
+      </c>
+      <c r="F2">
+        <v>0.00933016570572957</v>
+      </c>
+      <c r="G2">
+        <v>-0.09478168801241066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01882680304481044</v>
+        <v>0.04159948909150836</v>
       </c>
       <c r="C3">
-        <v>0.01357325838672833</v>
+        <v>-0.1018807308843901</v>
       </c>
       <c r="D3">
-        <v>0.1063414951027324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01794170045535587</v>
+      </c>
+      <c r="E3">
+        <v>-0.09911403369750579</v>
+      </c>
+      <c r="F3">
+        <v>0.003658981436502502</v>
+      </c>
+      <c r="G3">
+        <v>-0.1809470392396974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02466277954243154</v>
+        <v>0.05523890469941761</v>
       </c>
       <c r="C4">
-        <v>-0.002116007330125116</v>
+        <v>-0.06834767843718947</v>
       </c>
       <c r="D4">
-        <v>0.08571635886845458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02434117101508855</v>
+      </c>
+      <c r="E4">
+        <v>-0.02936422044754468</v>
+      </c>
+      <c r="F4">
+        <v>0.009735171779132081</v>
+      </c>
+      <c r="G4">
+        <v>-0.09868659554869169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01254577142473258</v>
+        <v>0.03635378371214208</v>
       </c>
       <c r="C6">
-        <v>-0.01077446900006228</v>
+        <v>-0.05268386122150404</v>
       </c>
       <c r="D6">
-        <v>0.08044864003430977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01685213648503384</v>
+      </c>
+      <c r="E6">
+        <v>-0.03517410883315421</v>
+      </c>
+      <c r="F6">
+        <v>0.006501505368019466</v>
+      </c>
+      <c r="G6">
+        <v>-0.08357598192559233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.008547695098454863</v>
+        <v>0.02056476861958043</v>
       </c>
       <c r="C7">
-        <v>-0.008974153635270763</v>
+        <v>-0.03946886026519383</v>
       </c>
       <c r="D7">
-        <v>0.03550235244165968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01388874375458593</v>
+      </c>
+      <c r="E7">
+        <v>-0.004565194383500878</v>
+      </c>
+      <c r="F7">
+        <v>-0.003811650841392762</v>
+      </c>
+      <c r="G7">
+        <v>-0.1198986016242359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>9.835225367899588e-05</v>
+        <v>0.003093434446431082</v>
       </c>
       <c r="C8">
-        <v>-0.001706872047847166</v>
+        <v>-0.02472453534110164</v>
       </c>
       <c r="D8">
-        <v>0.001898367023005718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003964311571749936</v>
+      </c>
+      <c r="E8">
+        <v>-0.02756130440216624</v>
+      </c>
+      <c r="F8">
+        <v>0.005871468480738701</v>
+      </c>
+      <c r="G8">
+        <v>-0.07064185161470247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01806979386576142</v>
+        <v>0.0333865368499096</v>
       </c>
       <c r="C9">
-        <v>0.003221882578137232</v>
+        <v>-0.04938452093658199</v>
       </c>
       <c r="D9">
-        <v>0.06267522481551574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01640257675618524</v>
+      </c>
+      <c r="E9">
+        <v>-0.01907718010774305</v>
+      </c>
+      <c r="F9">
+        <v>0.006985575975954139</v>
+      </c>
+      <c r="G9">
+        <v>-0.09904761269961465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07613215042870856</v>
+        <v>0.09883747195054766</v>
       </c>
       <c r="C10">
-        <v>0.1746144702583392</v>
+        <v>0.1819161302558537</v>
       </c>
       <c r="D10">
-        <v>-0.08882557432775878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01507942775882323</v>
+      </c>
+      <c r="E10">
+        <v>-0.0208077113233141</v>
+      </c>
+      <c r="F10">
+        <v>-0.02275474528652984</v>
+      </c>
+      <c r="G10">
+        <v>-0.05823392155047979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006397686703340693</v>
+        <v>0.03431746024592645</v>
       </c>
       <c r="C11">
-        <v>-0.004376112580662284</v>
+        <v>-0.05437377763926827</v>
       </c>
       <c r="D11">
-        <v>0.05615576990711673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002401380181689831</v>
+      </c>
+      <c r="E11">
+        <v>-0.01671844569039152</v>
+      </c>
+      <c r="F11">
+        <v>0.02137190175639057</v>
+      </c>
+      <c r="G11">
+        <v>-0.0924868572233952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.00393489246804164</v>
+        <v>0.03586604222009557</v>
       </c>
       <c r="C12">
-        <v>-0.005548784728344872</v>
+        <v>-0.04893605889529681</v>
       </c>
       <c r="D12">
-        <v>0.04795073274957922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006442934397864983</v>
+      </c>
+      <c r="E12">
+        <v>-0.007663244571989729</v>
+      </c>
+      <c r="F12">
+        <v>0.002080387178460345</v>
+      </c>
+      <c r="G12">
+        <v>-0.08402013994799354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02538696467481996</v>
+        <v>0.01540988470939347</v>
       </c>
       <c r="C13">
-        <v>0.002715307123892834</v>
+        <v>-0.04167525575445265</v>
       </c>
       <c r="D13">
-        <v>0.0396010955642835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02643610672067078</v>
+      </c>
+      <c r="E13">
+        <v>-0.03577350675009093</v>
+      </c>
+      <c r="F13">
+        <v>0.005254317454585519</v>
+      </c>
+      <c r="G13">
+        <v>-0.1364119866573332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.009213599688372223</v>
+        <v>0.008465399293285741</v>
       </c>
       <c r="C14">
-        <v>0.002932015099880777</v>
+        <v>-0.0285526595456562</v>
       </c>
       <c r="D14">
-        <v>0.01643529557683895</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01002103275296991</v>
+      </c>
+      <c r="E14">
+        <v>-0.006135935294129732</v>
+      </c>
+      <c r="F14">
+        <v>-0.007764894933229814</v>
+      </c>
+      <c r="G14">
+        <v>-0.1027939949009224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.002511994138029885</v>
+        <v>0.0330281352697983</v>
       </c>
       <c r="C16">
-        <v>0.003147465616849589</v>
+        <v>-0.04726522352808638</v>
       </c>
       <c r="D16">
-        <v>0.04483579397785113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.00186986895517734</v>
+      </c>
+      <c r="E16">
+        <v>-0.01418042915931815</v>
+      </c>
+      <c r="F16">
+        <v>0.002801856825973268</v>
+      </c>
+      <c r="G16">
+        <v>-0.09280832527908127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01190240070025137</v>
+        <v>0.02148506198686718</v>
       </c>
       <c r="C19">
-        <v>-0.005363425641062271</v>
+        <v>-0.0539924955670299</v>
       </c>
       <c r="D19">
-        <v>0.04857181798790802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01878726531615141</v>
+      </c>
+      <c r="E19">
+        <v>-0.07385109343966718</v>
+      </c>
+      <c r="F19">
+        <v>0.02035022248312751</v>
+      </c>
+      <c r="G19">
+        <v>-0.1333520599952565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009826270955290482</v>
+        <v>0.01484700361544408</v>
       </c>
       <c r="C20">
-        <v>-0.004644455922609017</v>
+        <v>-0.04026182623686562</v>
       </c>
       <c r="D20">
-        <v>0.03485965767025877</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01422257130465883</v>
+      </c>
+      <c r="E20">
+        <v>-0.03489497006759737</v>
+      </c>
+      <c r="F20">
+        <v>-0.01313785232264024</v>
+      </c>
+      <c r="G20">
+        <v>-0.1111038620746908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01471247933941777</v>
+        <v>0.01209620771273181</v>
       </c>
       <c r="C21">
-        <v>3.463042919412233e-05</v>
+        <v>-0.0397805367947361</v>
       </c>
       <c r="D21">
-        <v>0.03278720214626076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01890165318716081</v>
+      </c>
+      <c r="E21">
+        <v>-0.04894476208296907</v>
+      </c>
+      <c r="F21">
+        <v>0.0015518120916237</v>
+      </c>
+      <c r="G21">
+        <v>-0.1299325706996202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001467773035485737</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0003728027603163541</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0005676744793532391</v>
+      </c>
+      <c r="E22">
+        <v>-0.002941159626681538</v>
+      </c>
+      <c r="F22">
+        <v>0.00141412660810676</v>
+      </c>
+      <c r="G22">
+        <v>-0.004599304790340025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001470240403778569</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0004000000989531145</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.0005683613189383646</v>
+      </c>
+      <c r="E23">
+        <v>-0.002954495530652074</v>
+      </c>
+      <c r="F23">
+        <v>0.001421188098483535</v>
+      </c>
+      <c r="G23">
+        <v>-0.004620378387809128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.001573954918468518</v>
+        <v>0.02836305048208022</v>
       </c>
       <c r="C24">
-        <v>-0.009671279726458254</v>
+        <v>-0.05160801563293355</v>
       </c>
       <c r="D24">
-        <v>0.04944943293994796</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007164200932583711</v>
+      </c>
+      <c r="E24">
+        <v>-0.01102190761588036</v>
+      </c>
+      <c r="F24">
+        <v>0.01298435405464649</v>
+      </c>
+      <c r="G24">
+        <v>-0.09265958640914845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01318146107138241</v>
+        <v>0.04264790646153592</v>
       </c>
       <c r="C25">
-        <v>0.002249599511138622</v>
+        <v>-0.0587733234518337</v>
       </c>
       <c r="D25">
-        <v>0.05882954561001736</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0111390861473336</v>
+      </c>
+      <c r="E25">
+        <v>-0.002903491325281561</v>
+      </c>
+      <c r="F25">
+        <v>0.006950127214521327</v>
+      </c>
+      <c r="G25">
+        <v>-0.1021988591550772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0222513107896521</v>
+        <v>0.01419229992892337</v>
       </c>
       <c r="C26">
-        <v>-0.004751963267938778</v>
+        <v>-0.01135063121421527</v>
       </c>
       <c r="D26">
-        <v>0.0009385087707000898</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02401930782644642</v>
+      </c>
+      <c r="E26">
+        <v>-0.009019262916474272</v>
+      </c>
+      <c r="F26">
+        <v>-0.009681683530313123</v>
+      </c>
+      <c r="G26">
+        <v>-0.08122645156727477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.113035374966523</v>
+        <v>0.1259816989715098</v>
       </c>
       <c r="C28">
-        <v>0.2237449508050882</v>
+        <v>0.2384429086174495</v>
       </c>
       <c r="D28">
-        <v>-0.1120922320435253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.005982712163903863</v>
+      </c>
+      <c r="E28">
+        <v>-0.00861108907816501</v>
+      </c>
+      <c r="F28">
+        <v>-0.0174954657982931</v>
+      </c>
+      <c r="G28">
+        <v>-0.04589964953849024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01169074140692978</v>
+        <v>0.009537916831287732</v>
       </c>
       <c r="C29">
-        <v>0.008939433372798379</v>
+        <v>-0.02269571776469124</v>
       </c>
       <c r="D29">
-        <v>0.01911419663342845</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.008973034234167978</v>
+      </c>
+      <c r="E29">
+        <v>-0.003190007262787285</v>
+      </c>
+      <c r="F29">
+        <v>-0.01607173842781168</v>
+      </c>
+      <c r="G29">
+        <v>-0.09656225666505588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01877341742706315</v>
+        <v>0.04115585373416244</v>
       </c>
       <c r="C30">
-        <v>-0.01937329464853619</v>
+        <v>-0.07137848777418317</v>
       </c>
       <c r="D30">
-        <v>0.1047354575121628</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02866427942250896</v>
+      </c>
+      <c r="E30">
+        <v>-0.05626204775048097</v>
+      </c>
+      <c r="F30">
+        <v>0.0429408620383107</v>
+      </c>
+      <c r="G30">
+        <v>-0.1273550320681869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.01599445362740667</v>
+        <v>0.05273590277169712</v>
       </c>
       <c r="C31">
-        <v>0.0218415152276503</v>
+        <v>-0.03798319884438457</v>
       </c>
       <c r="D31">
-        <v>0.03609653853370318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.00383224228197298</v>
+      </c>
+      <c r="E31">
+        <v>-3.584006051794849e-05</v>
+      </c>
+      <c r="F31">
+        <v>-0.04060505958652133</v>
+      </c>
+      <c r="G31">
+        <v>-0.1006140541757013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0003545262451258166</v>
+        <v>0.001954755557846127</v>
       </c>
       <c r="C32">
-        <v>0.02024560943676762</v>
+        <v>-0.02429987915807105</v>
       </c>
       <c r="D32">
-        <v>0.004858606717599342</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.003473198422708442</v>
+      </c>
+      <c r="E32">
+        <v>-0.02853317720250173</v>
+      </c>
+      <c r="F32">
+        <v>0.03765123126835513</v>
+      </c>
+      <c r="G32">
+        <v>-0.07544441027233287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01318255329449678</v>
+        <v>0.02741860431056237</v>
       </c>
       <c r="C33">
-        <v>0.000878572375402523</v>
+        <v>-0.0512459049057158</v>
       </c>
       <c r="D33">
-        <v>0.04630067748524614</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01564394785473421</v>
+      </c>
+      <c r="E33">
+        <v>-0.04132573794352217</v>
+      </c>
+      <c r="F33">
+        <v>0.01534152923115546</v>
+      </c>
+      <c r="G33">
+        <v>-0.1608362273976477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.001170253652264564</v>
+        <v>0.03990559808720148</v>
       </c>
       <c r="C34">
-        <v>0.009574704031542442</v>
+        <v>-0.06063560786372976</v>
       </c>
       <c r="D34">
-        <v>0.05720071367897339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004635416110956413</v>
+      </c>
+      <c r="E34">
+        <v>-0.00583532561090324</v>
+      </c>
+      <c r="F34">
+        <v>0.02078505983761907</v>
+      </c>
+      <c r="G34">
+        <v>-0.09604001148465167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01602299880985974</v>
+        <v>0.01623781420959282</v>
       </c>
       <c r="C36">
-        <v>0.009129766993227357</v>
+        <v>-0.009358471185888612</v>
       </c>
       <c r="D36">
-        <v>0.006313223504132729</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01239147732651866</v>
+      </c>
+      <c r="E36">
+        <v>-0.007551172904609917</v>
+      </c>
+      <c r="F36">
+        <v>-0.007039057689706885</v>
+      </c>
+      <c r="G36">
+        <v>-0.090357012167637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.005065492896419715</v>
+        <v>0.03116805978060691</v>
       </c>
       <c r="C38">
-        <v>0.02678349881642334</v>
+        <v>-0.0311780420077377</v>
       </c>
       <c r="D38">
-        <v>0.04831303704949078</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007468626941909034</v>
+      </c>
+      <c r="E38">
+        <v>-0.005629890859956329</v>
+      </c>
+      <c r="F38">
+        <v>-0.01963448249758392</v>
+      </c>
+      <c r="G38">
+        <v>-0.08674178643618821</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.003227591441093209</v>
+        <v>0.03664886867161206</v>
       </c>
       <c r="C39">
-        <v>-0.029436005945353</v>
+        <v>-0.08102278670506745</v>
       </c>
       <c r="D39">
-        <v>0.1020360821165979</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01141961213437938</v>
+      </c>
+      <c r="E39">
+        <v>-0.02679816710554015</v>
+      </c>
+      <c r="F39">
+        <v>0.02274960436016547</v>
+      </c>
+      <c r="G39">
+        <v>-0.08919007188641945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01360103973959991</v>
+        <v>0.01325842286368434</v>
       </c>
       <c r="C40">
-        <v>0.003005450858151708</v>
+        <v>-0.04076781942673773</v>
       </c>
       <c r="D40">
-        <v>0.04121773165608265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01496288580664991</v>
+      </c>
+      <c r="E40">
+        <v>-0.03218304069907462</v>
+      </c>
+      <c r="F40">
+        <v>-0.007507079000637432</v>
+      </c>
+      <c r="G40">
+        <v>-0.1203068095402616</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01270897410137088</v>
+        <v>0.02069677249082981</v>
       </c>
       <c r="C41">
-        <v>0.01986838841788839</v>
+        <v>-0.002249715143181942</v>
       </c>
       <c r="D41">
-        <v>-0.009473866197533799</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.00430944919980788</v>
+      </c>
+      <c r="E41">
+        <v>-0.006077674370303337</v>
+      </c>
+      <c r="F41">
+        <v>-0.01532090054904502</v>
+      </c>
+      <c r="G41">
+        <v>-0.08257342525414084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.07822225077975993</v>
+        <v>0.01033919614220952</v>
       </c>
       <c r="C42">
-        <v>-0.05629625889359996</v>
+        <v>-0.03384739415474413</v>
       </c>
       <c r="D42">
-        <v>0.1683987166849583</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08963358766132118</v>
+      </c>
+      <c r="E42">
+        <v>-0.01627505403403382</v>
+      </c>
+      <c r="F42">
+        <v>-0.04744896283475399</v>
+      </c>
+      <c r="G42">
+        <v>0.04001936138860278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01288506534309633</v>
+        <v>0.03506196857005833</v>
       </c>
       <c r="C43">
-        <v>0.01838064200681381</v>
+        <v>-0.01816108341534993</v>
       </c>
       <c r="D43">
-        <v>-0.003971489115280955</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.005843319977078328</v>
+      </c>
+      <c r="E43">
+        <v>-0.02053028219035134</v>
+      </c>
+      <c r="F43">
+        <v>-0.006015640786121271</v>
+      </c>
+      <c r="G43">
+        <v>-0.1203097326321653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.001388828238506289</v>
+        <v>0.01289160678304657</v>
       </c>
       <c r="C44">
-        <v>-0.004853093073146855</v>
+        <v>-0.05884694623742787</v>
       </c>
       <c r="D44">
-        <v>0.05797308168342222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006922078613533037</v>
+      </c>
+      <c r="E44">
+        <v>-0.02259277187211087</v>
+      </c>
+      <c r="F44">
+        <v>-0.004030552653838278</v>
+      </c>
+      <c r="G44">
+        <v>-0.1111620041892754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01104314097211054</v>
+        <v>0.007534326386973051</v>
       </c>
       <c r="C46">
-        <v>0.0006308157146142865</v>
+        <v>-0.01705313234571952</v>
       </c>
       <c r="D46">
-        <v>0.001826948920529696</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01273537053127673</v>
+      </c>
+      <c r="E46">
+        <v>-0.003634572302186699</v>
+      </c>
+      <c r="F46">
+        <v>-0.01572686617084303</v>
+      </c>
+      <c r="G46">
+        <v>-0.1040831910436851</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.01110323261853079</v>
+        <v>0.07751662073521634</v>
       </c>
       <c r="C47">
-        <v>0.02665464908359638</v>
+        <v>-0.06804584652981893</v>
       </c>
       <c r="D47">
-        <v>0.07517222286593662</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005164591412510637</v>
+      </c>
+      <c r="E47">
+        <v>0.008078315892049869</v>
+      </c>
+      <c r="F47">
+        <v>-0.05512757664675765</v>
+      </c>
+      <c r="G47">
+        <v>-0.08734642408725887</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.007197367281567773</v>
+        <v>0.01925242440587769</v>
       </c>
       <c r="C48">
-        <v>0.01214710351297547</v>
+        <v>-0.01277134831860625</v>
       </c>
       <c r="D48">
-        <v>0.01929957533733232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.001966213216870193</v>
+      </c>
+      <c r="E48">
+        <v>-0.003245356101321992</v>
+      </c>
+      <c r="F48">
+        <v>-0.02048995661768013</v>
+      </c>
+      <c r="G48">
+        <v>-0.09565018497915276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.01742168534738782</v>
+        <v>0.07504763972114929</v>
       </c>
       <c r="C50">
-        <v>0.03524497352700383</v>
+        <v>-0.07232248564963675</v>
       </c>
       <c r="D50">
-        <v>0.07207386993122533</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002281390995889457</v>
+      </c>
+      <c r="E50">
+        <v>0.004297097561836141</v>
+      </c>
+      <c r="F50">
+        <v>-0.05669876798321636</v>
+      </c>
+      <c r="G50">
+        <v>-0.09531598643765739</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007561829368876588</v>
+        <v>0.01437728398707351</v>
       </c>
       <c r="C51">
-        <v>0.002108267890280805</v>
+        <v>-0.03595147077200143</v>
       </c>
       <c r="D51">
-        <v>0.01886643088806548</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01048606266273913</v>
+      </c>
+      <c r="E51">
+        <v>-0.02400291727102911</v>
+      </c>
+      <c r="F51">
+        <v>0.02459370943263156</v>
+      </c>
+      <c r="G51">
+        <v>-0.1215598088938832</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.01721667061805855</v>
+        <v>0.08122348302361172</v>
       </c>
       <c r="C53">
-        <v>0.03179109450153723</v>
+        <v>-0.08581023869031634</v>
       </c>
       <c r="D53">
-        <v>0.1324594615051746</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003290081137313981</v>
+      </c>
+      <c r="E53">
+        <v>0.02556686044997932</v>
+      </c>
+      <c r="F53">
+        <v>-0.06365672760640111</v>
+      </c>
+      <c r="G53">
+        <v>-0.09528952819050795</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01238977148279404</v>
+        <v>0.03254077986294374</v>
       </c>
       <c r="C54">
-        <v>0.03426526501681162</v>
+        <v>-0.01765025289543263</v>
       </c>
       <c r="D54">
-        <v>-0.001486206022275341</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001670468590938692</v>
+      </c>
+      <c r="E54">
+        <v>-0.01558990984561638</v>
+      </c>
+      <c r="F54">
+        <v>-0.005918091655113083</v>
+      </c>
+      <c r="G54">
+        <v>-0.1063951515298967</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.009761268976471383</v>
+        <v>0.07180449236113699</v>
       </c>
       <c r="C55">
-        <v>0.02004495537762799</v>
+        <v>-0.06953110951638784</v>
       </c>
       <c r="D55">
-        <v>0.1083304101656531</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.00498850084720597</v>
+      </c>
+      <c r="E55">
+        <v>0.02340509540129007</v>
+      </c>
+      <c r="F55">
+        <v>-0.06327810780362543</v>
+      </c>
+      <c r="G55">
+        <v>-0.07093816444114008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0181767160824559</v>
+        <v>0.1363982186266804</v>
       </c>
       <c r="C56">
-        <v>0.04311750343936873</v>
+        <v>-0.1087083081886173</v>
       </c>
       <c r="D56">
-        <v>0.1631493582154357</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01240101597853378</v>
+      </c>
+      <c r="E56">
+        <v>0.0320084075501746</v>
+      </c>
+      <c r="F56">
+        <v>-0.08018251225674496</v>
+      </c>
+      <c r="G56">
+        <v>-0.0483219426830996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02349460922034735</v>
+        <v>0.005229114872358308</v>
       </c>
       <c r="C57">
-        <v>-0.004905951962214218</v>
+        <v>-0.007286198823449387</v>
       </c>
       <c r="D57">
-        <v>0.03604762767521857</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02339833853603726</v>
+      </c>
+      <c r="E57">
+        <v>-0.02589173804929308</v>
+      </c>
+      <c r="F57">
+        <v>0.01026387562250659</v>
+      </c>
+      <c r="G57">
+        <v>-0.02672026800133879</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01733962869011119</v>
+        <v>0.05081782353228662</v>
       </c>
       <c r="C58">
-        <v>0.02936575477484667</v>
+        <v>-0.05491382107964626</v>
       </c>
       <c r="D58">
-        <v>0.1715626979679966</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02139919056530227</v>
+      </c>
+      <c r="E58">
+        <v>-0.9174831992904827</v>
+      </c>
+      <c r="F58">
+        <v>-0.2673524901845169</v>
+      </c>
+      <c r="G58">
+        <v>0.2119508981313028</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1190304813503461</v>
+        <v>0.16038690608139</v>
       </c>
       <c r="C59">
-        <v>0.2469401941506477</v>
+        <v>0.2034963367098734</v>
       </c>
       <c r="D59">
-        <v>-0.096012986855467</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01151896869924773</v>
+      </c>
+      <c r="E59">
+        <v>-0.02066837950862612</v>
+      </c>
+      <c r="F59">
+        <v>-0.003754005078458079</v>
+      </c>
+      <c r="G59">
+        <v>-0.03674333179294799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.09870149466621375</v>
+        <v>0.2883462937940295</v>
       </c>
       <c r="C60">
-        <v>0.1585315048518706</v>
+        <v>-0.1070769240507352</v>
       </c>
       <c r="D60">
-        <v>0.1446896794371324</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01129460690801795</v>
+      </c>
+      <c r="E60">
+        <v>0.0002177918266701565</v>
+      </c>
+      <c r="F60">
+        <v>0.3385127426108651</v>
+      </c>
+      <c r="G60">
+        <v>0.1618991485262155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.00154910087893113</v>
+        <v>0.03852716450786931</v>
       </c>
       <c r="C61">
-        <v>-0.005995020396385398</v>
+        <v>-0.06704097825393335</v>
       </c>
       <c r="D61">
-        <v>0.07617259927205312</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005377656715371886</v>
+      </c>
+      <c r="E61">
+        <v>-0.02167334583512552</v>
+      </c>
+      <c r="F61">
+        <v>0.01427614309691216</v>
+      </c>
+      <c r="G61">
+        <v>-0.09359431531508201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.00786035968857292</v>
+        <v>0.01521948960855522</v>
       </c>
       <c r="C63">
-        <v>-0.00175826279066003</v>
+        <v>-0.03035238272796401</v>
       </c>
       <c r="D63">
-        <v>0.02571192775629356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.00853732861218659</v>
+      </c>
+      <c r="E63">
+        <v>-0.003105824665604895</v>
+      </c>
+      <c r="F63">
+        <v>-0.01954326781505566</v>
+      </c>
+      <c r="G63">
+        <v>-0.094138711028456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.01663655414737494</v>
+        <v>0.0484334626457912</v>
       </c>
       <c r="C64">
-        <v>0.02071704247770977</v>
+        <v>-0.04740535636733658</v>
       </c>
       <c r="D64">
-        <v>0.06257589972625721</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006200851525040138</v>
+      </c>
+      <c r="E64">
+        <v>-0.005068690448948809</v>
+      </c>
+      <c r="F64">
+        <v>0.004641189776947433</v>
+      </c>
+      <c r="G64">
+        <v>-0.09696853841100608</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02114268063636964</v>
+        <v>0.07435039332421428</v>
       </c>
       <c r="C65">
-        <v>0.001695663907141205</v>
+        <v>-0.05973179513753547</v>
       </c>
       <c r="D65">
-        <v>0.107974096165479</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01652152692158074</v>
+      </c>
+      <c r="E65">
+        <v>-0.0375267808403898</v>
+      </c>
+      <c r="F65">
+        <v>0.02810169630967558</v>
+      </c>
+      <c r="G65">
+        <v>-0.03779439398162644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.003311268546981721</v>
+        <v>0.05114840337465167</v>
       </c>
       <c r="C66">
-        <v>-0.02945359686758483</v>
+        <v>-0.1082309433348118</v>
       </c>
       <c r="D66">
-        <v>0.1373727142685616</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01141946085958114</v>
+      </c>
+      <c r="E66">
+        <v>-0.03793698534114136</v>
+      </c>
+      <c r="F66">
+        <v>0.03514905132733841</v>
+      </c>
+      <c r="G66">
+        <v>-0.1054473694352135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.01626577524277507</v>
+        <v>0.05421170123654387</v>
       </c>
       <c r="C67">
-        <v>0.04181137603285272</v>
+        <v>-0.03444401727988144</v>
       </c>
       <c r="D67">
-        <v>0.06665207138514913</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005987885223148971</v>
+      </c>
+      <c r="E67">
+        <v>0.002189906128265232</v>
+      </c>
+      <c r="F67">
+        <v>-0.01817438398349775</v>
+      </c>
+      <c r="G67">
+        <v>-0.07678611348633499</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1339468173405098</v>
+        <v>0.1561976765143733</v>
       </c>
       <c r="C68">
-        <v>0.2359917840621012</v>
+        <v>0.2702221354577398</v>
       </c>
       <c r="D68">
-        <v>-0.1444038899166732</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005956994675139268</v>
+      </c>
+      <c r="E68">
+        <v>-0.01341686360021696</v>
+      </c>
+      <c r="F68">
+        <v>-0.03540438038000723</v>
+      </c>
+      <c r="G68">
+        <v>-0.02623158467061643</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.01115924352600994</v>
+        <v>0.08271325391154664</v>
       </c>
       <c r="C69">
-        <v>0.03419155317801711</v>
+        <v>-0.07066086386207505</v>
       </c>
       <c r="D69">
-        <v>0.08037432176516553</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00886318052697843</v>
+      </c>
+      <c r="E69">
+        <v>0.02067655857521794</v>
+      </c>
+      <c r="F69">
+        <v>-0.03537087320695161</v>
+      </c>
+      <c r="G69">
+        <v>-0.1036531391305459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,122 +2301,203 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1052967085137303</v>
+        <v>0.1413927796090627</v>
       </c>
       <c r="C71">
-        <v>0.1984958216568403</v>
+        <v>0.2285576271093622</v>
       </c>
       <c r="D71">
-        <v>-0.09208914722617965</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002589477416655551</v>
+      </c>
+      <c r="E71">
+        <v>-0.03614224150647607</v>
+      </c>
+      <c r="F71">
+        <v>-0.02090318776315837</v>
+      </c>
+      <c r="G71">
+        <v>-0.06817010726511399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.003850764495746836</v>
+        <v>0.08493405737537195</v>
       </c>
       <c r="C72">
-        <v>0.01966026416099183</v>
+        <v>-0.07083001009304746</v>
       </c>
       <c r="D72">
-        <v>0.1025926599524638</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008678785685931494</v>
+      </c>
+      <c r="E72">
+        <v>0.007706089236943433</v>
+      </c>
+      <c r="F72">
+        <v>0.04260490806837576</v>
+      </c>
+      <c r="G72">
+        <v>-0.08783891691848501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1151477686209485</v>
+        <v>0.3769456853975626</v>
       </c>
       <c r="C73">
-        <v>0.1675093767055226</v>
+        <v>-0.1194937789714441</v>
       </c>
       <c r="D73">
-        <v>0.2808216540362357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02010671130254296</v>
+      </c>
+      <c r="E73">
+        <v>-0.08089893987369424</v>
+      </c>
+      <c r="F73">
+        <v>0.5749991898113569</v>
+      </c>
+      <c r="G73">
+        <v>0.2853281011613842</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.01867323350594384</v>
+        <v>0.1045632791575968</v>
       </c>
       <c r="C74">
-        <v>0.04648174119110501</v>
+        <v>-0.1095112108760071</v>
       </c>
       <c r="D74">
-        <v>0.1806517969987984</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009388385948677925</v>
+      </c>
+      <c r="E74">
+        <v>0.00750243472254413</v>
+      </c>
+      <c r="F74">
+        <v>-0.06827607248762803</v>
+      </c>
+      <c r="G74">
+        <v>-0.08691305460383097</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.04330981546736566</v>
+        <v>0.2465812479112723</v>
       </c>
       <c r="C75">
-        <v>0.1057686135212143</v>
+        <v>-0.1524821251317749</v>
       </c>
       <c r="D75">
-        <v>0.2985119934619237</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03060751786822891</v>
+      </c>
+      <c r="E75">
+        <v>0.06770068070885164</v>
+      </c>
+      <c r="F75">
+        <v>-0.1687826588731725</v>
+      </c>
+      <c r="G75">
+        <v>0.009906232557522281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.01721814366564884</v>
+        <v>0.1179242636873921</v>
       </c>
       <c r="C76">
-        <v>0.05704980212672936</v>
+        <v>-0.1096009222108873</v>
       </c>
       <c r="D76">
-        <v>0.2162510056717935</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01811758818492981</v>
+      </c>
+      <c r="E76">
+        <v>0.02955544324145256</v>
+      </c>
+      <c r="F76">
+        <v>-0.1060228651366337</v>
+      </c>
+      <c r="G76">
+        <v>-0.06172314334744945</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01784351290616215</v>
+        <v>0.06787040722937435</v>
       </c>
       <c r="C77">
-        <v>0.01004411099518074</v>
+        <v>-0.05974076597902662</v>
       </c>
       <c r="D77">
-        <v>0.07056845424158595</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01088195083525711</v>
+      </c>
+      <c r="E77">
+        <v>-0.0450728521345727</v>
+      </c>
+      <c r="F77">
+        <v>0.01087483667375368</v>
+      </c>
+      <c r="G77">
+        <v>-0.06320411711631028</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.00621772171212188</v>
+        <v>0.04133691393685934</v>
       </c>
       <c r="C78">
-        <v>0.002528332427139042</v>
+        <v>-0.05149401775960014</v>
       </c>
       <c r="D78">
-        <v>0.05731241696440578</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.005791404193309905</v>
+      </c>
+      <c r="E78">
+        <v>-0.02776642395341971</v>
+      </c>
+      <c r="F78">
+        <v>0.03729953369327869</v>
+      </c>
+      <c r="G78">
+        <v>-0.1009341682786114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1797,66 +2508,111 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.02362776705666369</v>
+        <v>0.04324948539988799</v>
       </c>
       <c r="C80">
-        <v>0.01969240391158225</v>
+        <v>-0.05132058456419283</v>
       </c>
       <c r="D80">
-        <v>0.0860968271699747</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01307835369640025</v>
+      </c>
+      <c r="E80">
+        <v>-0.02364235583280962</v>
+      </c>
+      <c r="F80">
+        <v>0.01441260228376203</v>
+      </c>
+      <c r="G80">
+        <v>-0.05169047883358064</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.02623487783561834</v>
+        <v>0.1359634305037263</v>
       </c>
       <c r="C81">
-        <v>0.06194619572018332</v>
+        <v>-0.0958502770295428</v>
       </c>
       <c r="D81">
-        <v>0.1736993336097018</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0148249407440782</v>
+      </c>
+      <c r="E81">
+        <v>0.03530817682311777</v>
+      </c>
+      <c r="F81">
+        <v>-0.1264782972865252</v>
+      </c>
+      <c r="G81">
+        <v>-0.02530932872258789</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.131895778164073</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.07849822122183611</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.008898423744010463</v>
+      </c>
+      <c r="E82">
+        <v>0.09882751558160571</v>
+      </c>
+      <c r="F82">
+        <v>-0.04782616784338786</v>
+      </c>
+      <c r="G82">
+        <v>-0.0740014661398662</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01164598096237869</v>
+        <v>0.03586044196214889</v>
       </c>
       <c r="C83">
-        <v>0.01367396967046049</v>
+        <v>-0.02967217465257997</v>
       </c>
       <c r="D83">
-        <v>0.03580435454935921</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.005864787393003534</v>
+      </c>
+      <c r="E83">
+        <v>-0.03005147697912629</v>
+      </c>
+      <c r="F83">
+        <v>0.03002097586200834</v>
+      </c>
+      <c r="G83">
+        <v>-0.05988228726463717</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.04374692392136999</v>
+        <v>0.2121137309146175</v>
       </c>
       <c r="C85">
-        <v>0.07876591757102762</v>
+        <v>-0.147539602538255</v>
       </c>
       <c r="D85">
-        <v>0.2708713155194237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01748385623462793</v>
+      </c>
+      <c r="E85">
+        <v>0.1033668853721823</v>
+      </c>
+      <c r="F85">
+        <v>-0.1230832069739265</v>
+      </c>
+      <c r="G85">
+        <v>0.06094917096561319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01228484296288733</v>
+        <v>0.01368061240982433</v>
       </c>
       <c r="C86">
-        <v>0.01146653113813847</v>
+        <v>-0.02822393299298178</v>
       </c>
       <c r="D86">
-        <v>0.06005334091632755</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01177175898778266</v>
+      </c>
+      <c r="E86">
+        <v>-0.05132892470402068</v>
+      </c>
+      <c r="F86">
+        <v>0.02186427967102953</v>
+      </c>
+      <c r="G86">
+        <v>-0.1922961394857447</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00415473072624254</v>
+        <v>0.02099774515286245</v>
       </c>
       <c r="C87">
-        <v>-0.01173444321084956</v>
+        <v>-0.02326500556857914</v>
       </c>
       <c r="D87">
-        <v>0.04725861715344599</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01178769805513597</v>
+      </c>
+      <c r="E87">
+        <v>-0.09176779445622256</v>
+      </c>
+      <c r="F87">
+        <v>0.009477978711122615</v>
+      </c>
+      <c r="G87">
+        <v>-0.1217163668206065</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.03485813731984247</v>
+        <v>0.09349769851628416</v>
       </c>
       <c r="C88">
-        <v>0.01790060637535492</v>
+        <v>-0.06866447959848937</v>
       </c>
       <c r="D88">
-        <v>0.05633099345484761</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0221579948127557</v>
+      </c>
+      <c r="E88">
+        <v>0.003374217072867699</v>
+      </c>
+      <c r="F88">
+        <v>-0.01892060189508234</v>
+      </c>
+      <c r="G88">
+        <v>-0.09287821559854101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1976174113871619</v>
+        <v>0.2329999796731511</v>
       </c>
       <c r="C89">
-        <v>0.3663980786934748</v>
+        <v>0.3673045344681988</v>
       </c>
       <c r="D89">
-        <v>-0.1713166008839238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0005179930971929949</v>
+      </c>
+      <c r="E89">
+        <v>0.0129079092310087</v>
+      </c>
+      <c r="F89">
+        <v>-0.02499752969585734</v>
+      </c>
+      <c r="G89">
+        <v>-0.06935877058987094</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1560351371481556</v>
+        <v>0.2090709953192389</v>
       </c>
       <c r="C90">
-        <v>0.2952969957497528</v>
+        <v>0.316902130944564</v>
       </c>
       <c r="D90">
-        <v>-0.1530079894993159</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004075997656197705</v>
+      </c>
+      <c r="E90">
+        <v>-0.002890865721529948</v>
+      </c>
+      <c r="F90">
+        <v>-0.04740059745985234</v>
+      </c>
+      <c r="G90">
+        <v>-0.04613850870995979</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.03757742109833366</v>
+        <v>0.1853392652441378</v>
       </c>
       <c r="C91">
-        <v>0.09611702550517333</v>
+        <v>-0.1399330562457665</v>
       </c>
       <c r="D91">
-        <v>0.2277050194113629</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02202949961995049</v>
+      </c>
+      <c r="E91">
+        <v>0.06450555239247502</v>
+      </c>
+      <c r="F91">
+        <v>-0.1435823177436467</v>
+      </c>
+      <c r="G91">
+        <v>-0.03677568448653531</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1220132325534919</v>
+        <v>0.200314240822596</v>
       </c>
       <c r="C92">
-        <v>0.2954616217693897</v>
+        <v>0.2570798766100466</v>
       </c>
       <c r="D92">
-        <v>-0.05916649943085277</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03765092483182961</v>
+      </c>
+      <c r="E92">
+        <v>-0.0446242699340481</v>
+      </c>
+      <c r="F92">
+        <v>-0.06076834492900578</v>
+      </c>
+      <c r="G92">
+        <v>-0.1193725369520523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1617806666220343</v>
+        <v>0.2325143893139091</v>
       </c>
       <c r="C93">
-        <v>0.3168021533060324</v>
+        <v>0.3129442068236152</v>
       </c>
       <c r="D93">
-        <v>-0.1234759169359897</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01096234764526387</v>
+      </c>
+      <c r="E93">
+        <v>-0.008565777493056238</v>
+      </c>
+      <c r="F93">
+        <v>-0.04243984501097238</v>
+      </c>
+      <c r="G93">
+        <v>-0.05945282851255171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.07983782076500477</v>
+        <v>0.3192064922149522</v>
       </c>
       <c r="C94">
-        <v>0.1340813718493349</v>
+        <v>-0.1785339774129251</v>
       </c>
       <c r="D94">
-        <v>0.2871328687770621</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.01795962707456947</v>
+      </c>
+      <c r="E94">
+        <v>0.2103314838761282</v>
+      </c>
+      <c r="F94">
+        <v>-0.4802821001702406</v>
+      </c>
+      <c r="G94">
+        <v>0.4312418176546819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.0009478501661278087</v>
+        <v>0.1009202668219688</v>
       </c>
       <c r="C95">
-        <v>0.01674022706415198</v>
+        <v>-0.08971263086505829</v>
       </c>
       <c r="D95">
-        <v>0.1300327277972576</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01126914790037024</v>
+      </c>
+      <c r="E95">
+        <v>-0.07328157157294164</v>
+      </c>
+      <c r="F95">
+        <v>0.2035018759347267</v>
+      </c>
+      <c r="G95">
+        <v>0.05275630553378761</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.05831779694554538</v>
+        <v>0.196712420111203</v>
       </c>
       <c r="C98">
-        <v>0.1370623775590821</v>
+        <v>-0.04582254151250575</v>
       </c>
       <c r="D98">
-        <v>0.1565438367903116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01360917769240705</v>
+      </c>
+      <c r="E98">
+        <v>-0.07185176352126134</v>
+      </c>
+      <c r="F98">
+        <v>0.2364326739314161</v>
+      </c>
+      <c r="G98">
+        <v>0.007379031079244745</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.01146333422914251</v>
+        <v>0.009321330663482199</v>
       </c>
       <c r="C101">
-        <v>0.00883675689245542</v>
+        <v>-0.02271513816589961</v>
       </c>
       <c r="D101">
-        <v>0.01901183026955965</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.008816469542678096</v>
+      </c>
+      <c r="E101">
+        <v>-0.00301436598781846</v>
+      </c>
+      <c r="F101">
+        <v>-0.01702665077519916</v>
+      </c>
+      <c r="G101">
+        <v>-0.09546067906496419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.02985486634940933</v>
+        <v>0.1159062218488145</v>
       </c>
       <c r="C102">
-        <v>0.03947425893605901</v>
+        <v>-0.08400921882215732</v>
       </c>
       <c r="D102">
-        <v>0.1327165888753968</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0008429123631788232</v>
+      </c>
+      <c r="E102">
+        <v>0.03555150229037186</v>
+      </c>
+      <c r="F102">
+        <v>-0.04119016393372527</v>
+      </c>
+      <c r="G102">
+        <v>-0.01886253209277565</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.8806764187351044</v>
+        <v>0.02116650310397731</v>
       </c>
       <c r="C104">
-        <v>-0.4532670922906685</v>
+        <v>0.02915242148564685</v>
       </c>
       <c r="D104">
-        <v>-0.04085913291140061</v>
+        <v>0.9879274315964662</v>
+      </c>
+      <c r="E104">
+        <v>0.0481236539741754</v>
+      </c>
+      <c r="F104">
+        <v>-0.03314765933078011</v>
+      </c>
+      <c r="G104">
+        <v>0.03682615584657804</v>
       </c>
     </row>
   </sheetData>
